--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Telematica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1EBAEF-ED00-47D9-817F-A0E0E0F16F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37527124-1E55-4F38-91E1-4904443BFA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{6BF1915D-D17E-4AAF-9855-78EE7DA0C87E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{6BF1915D-D17E-4AAF-9855-78EE7DA0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="OMP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t># Hilos</t>
   </si>
@@ -47,12 +47,18 @@
   <si>
     <t xml:space="preserve"># Hilos </t>
   </si>
+  <si>
+    <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>SpeeUp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +67,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,15 +103,216 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,8 +344,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43204855643044615"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.42155699386926765"/>
+          <c:y val="2.7777679341744618E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -146,7 +361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -183,34 +398,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -595,9 +810,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -657,9 +872,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -711,14 +926,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -756,6 +968,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>SpeedUp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42155699386926765"/>
+          <c:y val="2.7777679341744618E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -767,19 +1042,697 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MPI!$A$2</c:f>
+              <c:f>OMP!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>Tiempo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OMP!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OMP!$C$2:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6672337975081144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0423573925032867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5442380667066109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2376861688608751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5258787711043453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2736849168008586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4814606346302677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9913799858945227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6668149466192173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8115875912408761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8210537588348679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6087362523345092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3153784311473524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9380608175473579</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7450145914396886</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3148581456566255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5290573111944301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4070299808004734</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7303696914146052</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7170099160945842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.453875202301745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.486499835363846</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.462119848839302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.66788789155523</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.756183093392396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.255983350676379</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.489215686274509</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.471869712351946</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.768914829226114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.834708948740225</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.223470363288719</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.854244402985074</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.558133854421104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.600048983590497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.53716960352423</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.701515620167026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.525853328827306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.512366186784792</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.287659925711928</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.127342419080069</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.433918669131238</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.177190406265296</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.381799694966958</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.189479334406869</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.169789892106756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.579648697758934</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.830128205128204</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.226537216828476</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.448709002093509</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.53358208955224</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.700487012987011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.747376311844079</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.689349112426036</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.934169278996862</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.504459308807135</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.793460925039874</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.39111434814275</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.119582664526483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEBC-48F1-A104-19CA899264EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490718896"/>
+        <c:axId val="490721848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="490718896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490721848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490721848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490718896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Hilos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> vs Tiempo en Varios Escenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -787,14 +1740,16 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -802,7 +1757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MPI!$B$2:$B$5</c:f>
+              <c:f>MPI!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -823,7 +1778,98 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MPI!$C$2:$C$5</c:f>
+              <c:f>MPI!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FDD-4CE5-BE12-D6F871AEF30B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -851,10 +1897,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>MPI!$A$11</c:f>
+              <c:f>MPI!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,7 +1912,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -874,14 +1922,16 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -889,7 +1939,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MPI!$B$11:$B$14</c:f>
+              <c:f>MPI!$B$23:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -910,7 +1960,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MPI!$C$11:$C$15</c:f>
+              <c:f>MPI!$C$23:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -977,14 +2027,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -993,7 +2042,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1039,14 +2088,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1055,7 +2103,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1126,14 +2174,640 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Hilos vs SpeedUp en Varios Escenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.588628762541806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.075318655851682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.117647058823529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.993421052631582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.141987829614607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.317307692307693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.160071942446042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C02F-419E-B66D-CE75BAA408CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6856392294220666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.070063694267517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.957446808510639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.10619469026549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.825949367088604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.928571428571431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.140625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.367549668874169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C02F-419E-B66D-CE75BAA408CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$23:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5421863536316947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.827510917030565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.578313253012041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.92647058823529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.581395348837205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.838709677419359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.151162790697668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C02F-419E-B66D-CE75BAA408CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="632431672"/>
+        <c:axId val="632425112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="632431672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632425112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="632425112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632431672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1158,12 +2832,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1198,12 +2869,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1237,8 +2905,82 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1249,7 +2991,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1265,25 +3007,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1295,7 +3037,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1303,11 +3045,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1339,35 +3081,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1379,22 +3131,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1424,15 +3180,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1442,7 +3196,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1451,7 +3205,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1461,65 +3251,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1532,54 +3382,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1589,8 +3402,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1600,66 +3413,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1668,14 +3422,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1689,27 +3442,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1726,9 +3478,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1741,20 +3493,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1765,7 +3511,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1781,25 +3527,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1811,7 +3557,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1819,11 +3565,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1855,35 +3601,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1895,22 +3651,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1940,15 +3700,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1958,7 +3716,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1967,7 +3725,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1977,65 +3771,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2048,54 +3902,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2105,8 +3922,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2116,66 +3933,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2184,14 +3942,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2205,14 +3962,105 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2221,15 +4069,145 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2240,31 +4218,839 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2273,16 +5059,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316367</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2307,6 +5093,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>362290</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E36E2C8-AE1B-4342-83F6-4B77E9E6AA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2314,16 +5138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>501806</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>98967</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88210</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>501806</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175167</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2348,41 +5172,103 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654739</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147431</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E4DADD-2D25-4269-BCC6-61FFADF48EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0075C8F-7D1C-4DF2-B184-0754C5701318}" name="Tabla2" displayName="Tabla2" ref="A1:B60" totalsRowShown="0">
-  <autoFilter ref="A1:B60" xr:uid="{6AA010F7-8F91-4AAC-BA0F-C978C6BBFAB0}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ADEE3EBF-FB04-4D0D-8295-8F4D45E0E945}" name="# Hilos"/>
-    <tableColumn id="2" xr3:uid="{263466ED-80C4-43A9-A021-BF40EE4188F1}" name="Tiempo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0075C8F-7D1C-4DF2-B184-0754C5701318}" name="Tabla2" displayName="Tabla2" ref="A1:C60" totalsRowShown="0" headerRowDxfId="4" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:C60" xr:uid="{6AA010F7-8F91-4AAC-BA0F-C978C6BBFAB0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ADEE3EBF-FB04-4D0D-8295-8F4D45E0E945}" name="# Hilos" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{263466ED-80C4-43A9-A021-BF40EE4188F1}" name="Tiempo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5726A21D-8D73-4CA5-ABFE-997960B2163C}" name="SpeeUp" dataDxfId="3">
+      <calculatedColumnFormula>$B$2/Tabla2[[#This Row],[Tiempo]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68AE09DB-4915-4E93-B730-FD41D7D8CB57}" name="Tabla1" displayName="Tabla1" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{1E647F0D-81FD-474C-896C-C98F5D47C7D7}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{42BB61DA-1AF3-46F2-8A18-92FABFB3FA17}" name="# Procesadores"/>
-    <tableColumn id="2" xr3:uid="{A3707912-68A7-4EB6-AB29-F38D3675EECB}" name="# Hilos "/>
-    <tableColumn id="3" xr3:uid="{CF33229F-AC7E-4DCE-AD78-D8A186DE33BF}" name="Tiempo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68AE09DB-4915-4E93-B730-FD41D7D8CB57}" name="Tabla1" displayName="Tabla1" ref="A12:D20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="20" tableBorderDxfId="25">
+  <autoFilter ref="A12:D20" xr:uid="{1E647F0D-81FD-474C-896C-C98F5D47C7D7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{42BB61DA-1AF3-46F2-8A18-92FABFB3FA17}" name="# Procesadores" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A3707912-68A7-4EB6-AB29-F38D3675EECB}" name="# Hilos " dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CF33229F-AC7E-4DCE-AD78-D8A186DE33BF}" name="Tiempo" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{BAAC4E2B-C127-48F5-BA1E-51B84ABEE5DF}" name="SpeedUp" dataDxfId="1">
+      <calculatedColumnFormula>$C$3/Tabla1[[#This Row],[Tiempo]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DFEE06E2-7761-450A-B378-026BFFDBA391}" name="Tabla3" displayName="Tabla3" ref="A10:C18" totalsRowShown="0">
-  <autoFilter ref="A10:C18" xr:uid="{422F72BF-0468-446D-B85A-7014A2457EF6}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8FB533AA-7370-49A0-9074-6416D4DDC9DD}" name="# Procesadores"/>
-    <tableColumn id="2" xr3:uid="{D9443354-35DD-4A81-B38B-2FC727A4AA13}" name="# Hilos "/>
-    <tableColumn id="3" xr3:uid="{6E611F8A-0E67-4D33-9CC7-4E2E93EE6F86}" name="Tiempo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DFEE06E2-7761-450A-B378-026BFFDBA391}" name="Tabla3" displayName="Tabla3" ref="A22:D30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="16" tableBorderDxfId="24">
+  <autoFilter ref="A22:D30" xr:uid="{422F72BF-0468-446D-B85A-7014A2457EF6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8FB533AA-7370-49A0-9074-6416D4DDC9DD}" name="# Procesadores" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D9443354-35DD-4A81-B38B-2FC727A4AA13}" name="# Hilos " dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6E611F8A-0E67-4D33-9CC7-4E2E93EE6F86}" name="Tiempo" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{0C237FEC-1E27-4454-BD33-8587E47306A1}" name="SpeedUp" dataDxfId="0">
+      <calculatedColumnFormula>$C$3/Tabla3[[#This Row],[Tiempo]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D846A659-BA97-4DB7-B090-A6F13357C664}" name="Tabla35" displayName="Tabla35" ref="A2:D10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="12" tableBorderDxfId="26">
+  <autoFilter ref="A2:D10" xr:uid="{86B0FB05-68BA-40BC-A89E-78E86147556B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F64A74C6-8A4D-417F-A9EB-E6210FA8CBBE}" name="# Procesadores" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{550F3AF1-4041-42F8-93B3-35C8AB254F13}" name="# Hilos " dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8D1D8AEC-9EEE-45DF-8FDD-C2F8EF7070D2}" name="Tiempo" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A83B717C-960E-4527-AC7C-976CB18406CC}" name="SpeedUp" dataDxfId="2">
+      <calculatedColumnFormula>$C$3/Tabla35[[#This Row],[Tiempo]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2685,492 +5571,735 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEF865A-7328-47C8-9E8D-A7D0BFB1A343}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>63695</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>38204</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>1.6672337975081144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>31187</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>2.0423573925032867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>25035</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>2.5442380667066109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>19673</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>3.2376861688608751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>18065</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>3.5258787711043453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>14904</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>4.2736849168008586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>14213</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>4.4814606346302677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>12761</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>4.9913799858945227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>11240</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>5.6668149466192173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>10960</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>5.8115875912408761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>9338</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>6.8210537588348679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>9638</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>6.6087362523345092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>8707</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>7.3153784311473524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>8024</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>7.9380608175473579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>8224</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>7.7450145914396886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>6838</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>9.3148581456566255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>7468</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>8.5290573111944301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>6771</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>9.4070299808004734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>6546</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>9.7303696914146052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>6555</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>9.7170099160945842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>5561</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>11.453875202301745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>6074</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>10.486499835363846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>5557</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C25" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>11.462119848839302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>5459</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C26" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>11.66788789155523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>5418</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C27" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>11.756183093392396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>4805</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C28" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>13.255983350676379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>5100</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C29" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>12.489215686274509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>4728</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C30" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>13.471869712351946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>4626</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C31" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>13.768914829226114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>4604</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C32" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>13.834708948740225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>4184</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C33" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>15.223470363288719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>4288</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C34" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>14.854244402985074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>4094</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C35" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>15.558133854421104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>4083</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C36" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>15.600048983590497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>3632</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C37" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>17.53716960352423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>45</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>3233</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C38" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>19.701515620167026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>50</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2959</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>21.525853328827306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>55</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2709</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C40" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>23.512366186784792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>60</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>2423</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C41" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>26.287659925711928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>65</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>2348</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C42" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>27.127342419080069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>70</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>2164</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C43" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>29.433918669131238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>75</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>2043</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C44" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>31.177190406265296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>80</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>1967</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C45" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>32.381799694966958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>85</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>1863</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>34.189479334406869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>90</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1761</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C47" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>36.169789892106756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>95</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>1651</v>
       </c>
+      <c r="C48" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>38.579648697758934</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>100</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>1560</v>
       </c>
+      <c r="C49" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>40.830128205128204</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>110</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>1545</v>
       </c>
+      <c r="C50" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>41.226537216828476</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>120</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>1433</v>
       </c>
+      <c r="C51" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>44.448709002093509</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>130</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>1340</v>
       </c>
+      <c r="C52" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>47.53358208955224</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>140</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>1232</v>
       </c>
+      <c r="C53" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>51.700487012987011</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>150</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1334</v>
       </c>
+      <c r="C54" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>47.747376311844079</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>160</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1690</v>
       </c>
+      <c r="C55" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>37.689349112426036</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>170</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>1595</v>
       </c>
+      <c r="C56" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>39.934169278996862</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>180</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>1794</v>
       </c>
+      <c r="C57" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>35.504459308807135</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>190</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>1254</v>
       </c>
+      <c r="C58" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>50.793460925039874</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>200</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>1373</v>
       </c>
+      <c r="C59" s="11">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>46.39111434814275</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>256</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1246</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="12">
+        <f>$B$2/Tabla2[[#This Row],[Tiempo]]</f>
+        <v>51.119582664526483</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3183,211 +6312,557 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F057668-9A4C-48DE-98C3-9F040AE10718}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17325</v>
+      </c>
+      <c r="D3" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1495</v>
+      </c>
+      <c r="D4" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>11.588628762541806</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>863</v>
+      </c>
+      <c r="D5" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>20.075318655851682</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>595</v>
+      </c>
+      <c r="D6" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>29.117647058823529</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>456</v>
+      </c>
+      <c r="D7" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>37.993421052631582</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>150</v>
+      </c>
+      <c r="C8" s="2">
+        <v>493</v>
+      </c>
+      <c r="D8" s="8">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>35.141987829614607</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2">
+        <v>520</v>
+      </c>
+      <c r="D9" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>33.317307692307693</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2">
+        <v>556</v>
+      </c>
+      <c r="D10" s="7">
+        <f>$C$3/Tabla35[[#This Row],[Tiempo]]</f>
+        <v>31.160071942446042</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>10278</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D13" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>1.6856392294220666</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C14" s="2">
         <v>785</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D14" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>22.070063694267517</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B15" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C15" s="2">
         <v>423</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D15" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>40.957446808510639</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B16" s="2">
         <v>75</v>
       </c>
-      <c r="C5">
+      <c r="C16" s="2">
         <v>339</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D16" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>51.10619469026549</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B17" s="2">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C17" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D17" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>54.825949367088604</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B18" s="2">
         <v>150</v>
       </c>
-      <c r="C7">
+      <c r="C18" s="2">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D18" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>58.928571428571431</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B19" s="2">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2">
+        <v>320</v>
+      </c>
+      <c r="D19" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>54.140625</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
         <v>256</v>
       </c>
-      <c r="C8">
+      <c r="C20" s="2">
         <v>302</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D20" s="7">
+        <f>$C$3/Tabla1[[#This Row],[Tiempo]]</f>
+        <v>57.367549668874169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C22" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C23" s="2">
         <v>6815</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D23" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>2.5421863536316947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B24" s="2">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C24" s="2">
         <v>458</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D24" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>37.827510917030565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B25" s="2">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C25" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D25" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>69.578313253012041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B26" s="2">
         <v>75</v>
       </c>
-      <c r="C14">
+      <c r="C26" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D26" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>83.695652173913047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B27" s="2">
         <v>100</v>
       </c>
-      <c r="C15">
+      <c r="C27" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D27" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>84.92647058823529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B28" s="2">
         <v>150</v>
       </c>
-      <c r="C16">
+      <c r="C28" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D28" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>80.581395348837205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B29" s="2">
         <v>200</v>
       </c>
-      <c r="C17">
+      <c r="C29" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D29" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>79.838709677419359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B30" s="3">
         <v>256</v>
       </c>
-      <c r="C18">
+      <c r="C30" s="2">
         <v>258</v>
+      </c>
+      <c r="D30" s="7">
+        <f>$C$3/Tabla3[[#This Row],[Tiempo]]</f>
+        <v>67.151162790697668</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>